--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adm-Calcrl.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adm-Calcrl.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>8.299916333333334</v>
+        <v>12.31940633333333</v>
       </c>
       <c r="H2">
-        <v>24.899749</v>
+        <v>36.958219</v>
       </c>
       <c r="I2">
-        <v>0.2999832381170111</v>
+        <v>0.3801768364207869</v>
       </c>
       <c r="J2">
-        <v>0.2999832381170111</v>
+        <v>0.3801768364207869</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.29099299999999</v>
+        <v>91.60947133333333</v>
       </c>
       <c r="N2">
-        <v>132.872979</v>
+        <v>274.828414</v>
       </c>
       <c r="O2">
-        <v>0.5386410749126281</v>
+        <v>0.7121576185577153</v>
       </c>
       <c r="P2">
-        <v>0.5386410749126281</v>
+        <v>0.7121576185577152</v>
       </c>
       <c r="Q2">
-        <v>367.6115362202523</v>
+        <v>1128.574301337185</v>
       </c>
       <c r="R2">
-        <v>3308.503825982271</v>
+        <v>10157.16871203467</v>
       </c>
       <c r="S2">
-        <v>0.1615832938351177</v>
+        <v>0.2707458304562337</v>
       </c>
       <c r="T2">
-        <v>0.1615832938351177</v>
+        <v>0.2707458304562336</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>8.299916333333334</v>
+        <v>12.31940633333333</v>
       </c>
       <c r="H3">
-        <v>24.899749</v>
+        <v>36.958219</v>
       </c>
       <c r="I3">
-        <v>0.2999832381170111</v>
+        <v>0.3801768364207869</v>
       </c>
       <c r="J3">
-        <v>0.2999832381170111</v>
+        <v>0.3801768364207869</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.83185066666666</v>
+        <v>22.83185066666667</v>
       </c>
       <c r="N3">
-        <v>68.49555199999999</v>
+        <v>68.495552</v>
       </c>
       <c r="O3">
-        <v>0.2776675742026813</v>
+        <v>0.1774912152792038</v>
       </c>
       <c r="P3">
-        <v>0.2776675742026813</v>
+        <v>0.1774912152792038</v>
       </c>
       <c r="Q3">
-        <v>189.5024502684942</v>
+        <v>281.2748457046542</v>
       </c>
       <c r="R3">
-        <v>1705.522052416448</v>
+        <v>2531.473611341888</v>
       </c>
       <c r="S3">
-        <v>0.08329561802941579</v>
+        <v>0.06747804871732854</v>
       </c>
       <c r="T3">
-        <v>0.08329561802941579</v>
+        <v>0.06747804871732853</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>8.299916333333334</v>
+        <v>12.31940633333333</v>
       </c>
       <c r="H4">
-        <v>24.899749</v>
+        <v>36.958219</v>
       </c>
       <c r="I4">
-        <v>0.2999832381170111</v>
+        <v>0.3801768364207869</v>
       </c>
       <c r="J4">
-        <v>0.2999832381170111</v>
+        <v>0.3801768364207869</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.361398</v>
+        <v>7.077809999999999</v>
       </c>
       <c r="N4">
-        <v>19.084194</v>
+        <v>21.23343</v>
       </c>
       <c r="O4">
-        <v>0.0773635907568621</v>
+        <v>0.05502178149094856</v>
       </c>
       <c r="P4">
-        <v>0.07736359075686208</v>
+        <v>0.05502178149094855</v>
       </c>
       <c r="Q4">
-        <v>52.79907116303401</v>
+        <v>87.19441734012999</v>
       </c>
       <c r="R4">
-        <v>475.191640467306</v>
+        <v>784.7497560611699</v>
       </c>
       <c r="S4">
-        <v>0.02320778046760276</v>
+        <v>0.02091800682146463</v>
       </c>
       <c r="T4">
-        <v>0.02320778046760275</v>
+        <v>0.02091800682146462</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>8.299916333333334</v>
+        <v>12.31940633333333</v>
       </c>
       <c r="H5">
-        <v>24.899749</v>
+        <v>36.958219</v>
       </c>
       <c r="I5">
-        <v>0.2999832381170111</v>
+        <v>0.3801768364207869</v>
       </c>
       <c r="J5">
-        <v>0.2999832381170111</v>
+        <v>0.3801768364207869</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.743043</v>
+        <v>7.117379</v>
       </c>
       <c r="N5">
-        <v>26.229129</v>
+        <v>21.352137</v>
       </c>
       <c r="O5">
-        <v>0.1063277601278285</v>
+        <v>0.05532938467213248</v>
       </c>
       <c r="P5">
-        <v>0.1063277601278285</v>
+        <v>0.05532938467213247</v>
       </c>
       <c r="Q5">
-        <v>72.56652539873568</v>
+        <v>87.68188392933367</v>
       </c>
       <c r="R5">
-        <v>653.098728588621</v>
+        <v>789.1369553640029</v>
       </c>
       <c r="S5">
-        <v>0.0318965457848748</v>
+        <v>0.0210349504257601</v>
       </c>
       <c r="T5">
-        <v>0.0318965457848748</v>
+        <v>0.0210349504257601</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.11265066666667</v>
+        <v>18.11265066666666</v>
       </c>
       <c r="H6">
-        <v>54.337952</v>
+        <v>54.33795199999999</v>
       </c>
       <c r="I6">
-        <v>0.6546441409351843</v>
+        <v>0.5589563363143816</v>
       </c>
       <c r="J6">
-        <v>0.6546441409351844</v>
+        <v>0.5589563363143816</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.29099299999999</v>
+        <v>91.60947133333333</v>
       </c>
       <c r="N6">
-        <v>132.872979</v>
+        <v>274.828414</v>
       </c>
       <c r="O6">
-        <v>0.5386410749126281</v>
+        <v>0.7121576185577153</v>
       </c>
       <c r="P6">
-        <v>0.5386410749126281</v>
+        <v>0.7121576185577152</v>
       </c>
       <c r="Q6">
-        <v>802.2272838887785</v>
+        <v>1659.290352018681</v>
       </c>
       <c r="R6">
-        <v>7220.045554999007</v>
+        <v>14933.61316816813</v>
       </c>
       <c r="S6">
-        <v>0.3526182237585817</v>
+        <v>0.3980650133473954</v>
       </c>
       <c r="T6">
-        <v>0.3526182237585818</v>
+        <v>0.3980650133473953</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.11265066666667</v>
+        <v>18.11265066666666</v>
       </c>
       <c r="H7">
-        <v>54.337952</v>
+        <v>54.33795199999999</v>
       </c>
       <c r="I7">
-        <v>0.6546441409351843</v>
+        <v>0.5589563363143816</v>
       </c>
       <c r="J7">
-        <v>0.6546441409351844</v>
+        <v>0.5589563363143816</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.83185066666666</v>
+        <v>22.83185066666667</v>
       </c>
       <c r="N7">
-        <v>68.49555199999999</v>
+        <v>68.495552</v>
       </c>
       <c r="O7">
-        <v>0.2776675742026813</v>
+        <v>0.1774912152792038</v>
       </c>
       <c r="P7">
-        <v>0.2776675742026813</v>
+        <v>0.1774912152792038</v>
       </c>
       <c r="Q7">
         <v>413.5453351988338</v>
@@ -883,10 +883,10 @@
         <v>3721.908016789504</v>
       </c>
       <c r="S7">
-        <v>0.1817734505794709</v>
+        <v>0.09920983942045096</v>
       </c>
       <c r="T7">
-        <v>0.1817734505794709</v>
+        <v>0.09920983942045095</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.11265066666667</v>
+        <v>18.11265066666666</v>
       </c>
       <c r="H8">
-        <v>54.337952</v>
+        <v>54.33795199999999</v>
       </c>
       <c r="I8">
-        <v>0.6546441409351843</v>
+        <v>0.5589563363143816</v>
       </c>
       <c r="J8">
-        <v>0.6546441409351844</v>
+        <v>0.5589563363143816</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.361398</v>
+        <v>7.077809999999999</v>
       </c>
       <c r="N8">
-        <v>19.084194</v>
+        <v>21.23343</v>
       </c>
       <c r="O8">
-        <v>0.0773635907568621</v>
+        <v>0.05502178149094856</v>
       </c>
       <c r="P8">
-        <v>0.07736359075686208</v>
+        <v>0.05502178149094855</v>
       </c>
       <c r="Q8">
-        <v>115.221779725632</v>
+        <v>128.19790001504</v>
       </c>
       <c r="R8">
-        <v>1036.996017530688</v>
+        <v>1153.78110013536</v>
       </c>
       <c r="S8">
-        <v>0.05064562141068715</v>
+        <v>0.03075477339967106</v>
       </c>
       <c r="T8">
-        <v>0.05064562141068715</v>
+        <v>0.03075477339967105</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.11265066666667</v>
+        <v>18.11265066666666</v>
       </c>
       <c r="H9">
-        <v>54.337952</v>
+        <v>54.33795199999999</v>
       </c>
       <c r="I9">
-        <v>0.6546441409351843</v>
+        <v>0.5589563363143816</v>
       </c>
       <c r="J9">
-        <v>0.6546441409351844</v>
+        <v>0.5589563363143816</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.743043</v>
+        <v>7.117379</v>
       </c>
       <c r="N9">
-        <v>26.229129</v>
+        <v>21.352137</v>
       </c>
       <c r="O9">
-        <v>0.1063277601278285</v>
+        <v>0.05532938467213248</v>
       </c>
       <c r="P9">
-        <v>0.1063277601278285</v>
+        <v>0.05532938467213247</v>
       </c>
       <c r="Q9">
-        <v>158.3596836226453</v>
+        <v>128.9145994892693</v>
       </c>
       <c r="R9">
-        <v>1425.237152603808</v>
+        <v>1160.231395403424</v>
       </c>
       <c r="S9">
-        <v>0.06960684518644461</v>
+        <v>0.03092671014686427</v>
       </c>
       <c r="T9">
-        <v>0.06960684518644462</v>
+        <v>0.03092671014686427</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.193828666666667</v>
+        <v>1.603212</v>
       </c>
       <c r="H10">
-        <v>3.581486</v>
+        <v>4.809636</v>
       </c>
       <c r="I10">
-        <v>0.04314845774351948</v>
+        <v>0.04947511672073613</v>
       </c>
       <c r="J10">
-        <v>0.04314845774351948</v>
+        <v>0.04947511672073613</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>44.29099299999999</v>
+        <v>91.60947133333333</v>
       </c>
       <c r="N10">
-        <v>132.872979</v>
+        <v>274.828414</v>
       </c>
       <c r="O10">
-        <v>0.5386410749126281</v>
+        <v>0.7121576185577153</v>
       </c>
       <c r="P10">
-        <v>0.5386410749126281</v>
+        <v>0.7121576185577152</v>
       </c>
       <c r="Q10">
-        <v>52.87585711853266</v>
+        <v>146.869403755256</v>
       </c>
       <c r="R10">
-        <v>475.8827140667939</v>
+        <v>1321.824633797304</v>
       </c>
       <c r="S10">
-        <v>0.02324153165979144</v>
+        <v>0.03523408130170445</v>
       </c>
       <c r="T10">
-        <v>0.02324153165979145</v>
+        <v>0.03523408130170444</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.193828666666667</v>
+        <v>1.603212</v>
       </c>
       <c r="H11">
-        <v>3.581486</v>
+        <v>4.809636</v>
       </c>
       <c r="I11">
-        <v>0.04314845774351948</v>
+        <v>0.04947511672073613</v>
       </c>
       <c r="J11">
-        <v>0.04314845774351948</v>
+        <v>0.04947511672073613</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.83185066666666</v>
+        <v>22.83185066666667</v>
       </c>
       <c r="N11">
-        <v>68.49555199999999</v>
+        <v>68.495552</v>
       </c>
       <c r="O11">
-        <v>0.2776675742026813</v>
+        <v>0.1774912152792038</v>
       </c>
       <c r="P11">
-        <v>0.2776675742026813</v>
+        <v>0.1774912152792038</v>
       </c>
       <c r="Q11">
-        <v>27.25731783891911</v>
+        <v>36.604296971008</v>
       </c>
       <c r="R11">
-        <v>245.315860550272</v>
+        <v>329.438672739072</v>
       </c>
       <c r="S11">
-        <v>0.01198092759222995</v>
+        <v>0.008781398592843914</v>
       </c>
       <c r="T11">
-        <v>0.01198092759222996</v>
+        <v>0.008781398592843912</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.193828666666667</v>
+        <v>1.603212</v>
       </c>
       <c r="H12">
-        <v>3.581486</v>
+        <v>4.809636</v>
       </c>
       <c r="I12">
-        <v>0.04314845774351948</v>
+        <v>0.04947511672073613</v>
       </c>
       <c r="J12">
-        <v>0.04314845774351948</v>
+        <v>0.04947511672073613</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.361398</v>
+        <v>7.077809999999999</v>
       </c>
       <c r="N12">
-        <v>19.084194</v>
+        <v>21.23343</v>
       </c>
       <c r="O12">
-        <v>0.0773635907568621</v>
+        <v>0.05502178149094856</v>
       </c>
       <c r="P12">
-        <v>0.07736359075686208</v>
+        <v>0.05502178149094855</v>
       </c>
       <c r="Q12">
-        <v>7.594419292476</v>
+        <v>11.34722992572</v>
       </c>
       <c r="R12">
-        <v>68.349773632284</v>
+        <v>102.12506933148</v>
       </c>
       <c r="S12">
-        <v>0.003338119626659398</v>
+        <v>0.002722209061447519</v>
       </c>
       <c r="T12">
-        <v>0.003338119626659398</v>
+        <v>0.002722209061447518</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.193828666666667</v>
+        <v>1.603212</v>
       </c>
       <c r="H13">
-        <v>3.581486</v>
+        <v>4.809636</v>
       </c>
       <c r="I13">
-        <v>0.04314845774351948</v>
+        <v>0.04947511672073613</v>
       </c>
       <c r="J13">
-        <v>0.04314845774351948</v>
+        <v>0.04947511672073613</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.743043</v>
+        <v>7.117379</v>
       </c>
       <c r="N13">
-        <v>26.229129</v>
+        <v>21.352137</v>
       </c>
       <c r="O13">
-        <v>0.1063277601278285</v>
+        <v>0.05532938467213248</v>
       </c>
       <c r="P13">
-        <v>0.1063277601278285</v>
+        <v>0.05532938467213247</v>
       </c>
       <c r="Q13">
-        <v>10.43769536729933</v>
+        <v>11.410667421348</v>
       </c>
       <c r="R13">
-        <v>93.939258305694</v>
+        <v>102.696006792132</v>
       </c>
       <c r="S13">
-        <v>0.004587878864838682</v>
+        <v>0.002737427764740263</v>
       </c>
       <c r="T13">
-        <v>0.004587878864838683</v>
+        <v>0.002737427764740263</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.061538</v>
+        <v>0.3691416666666666</v>
       </c>
       <c r="H14">
-        <v>0.184614</v>
+        <v>1.107425</v>
       </c>
       <c r="I14">
-        <v>0.002224163204285066</v>
+        <v>0.01139171054409548</v>
       </c>
       <c r="J14">
-        <v>0.002224163204285067</v>
+        <v>0.01139171054409548</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>44.29099299999999</v>
+        <v>91.60947133333333</v>
       </c>
       <c r="N14">
-        <v>132.872979</v>
+        <v>274.828414</v>
       </c>
       <c r="O14">
-        <v>0.5386410749126281</v>
+        <v>0.7121576185577153</v>
       </c>
       <c r="P14">
-        <v>0.5386410749126281</v>
+        <v>0.7121576185577152</v>
       </c>
       <c r="Q14">
-        <v>2.725579127234</v>
+        <v>33.81687293043888</v>
       </c>
       <c r="R14">
-        <v>24.530212145106</v>
+        <v>304.35185637395</v>
       </c>
       <c r="S14">
-        <v>0.001198025659137223</v>
+        <v>0.008112693452381851</v>
       </c>
       <c r="T14">
-        <v>0.001198025659137224</v>
+        <v>0.00811269345238185</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.061538</v>
+        <v>0.3691416666666666</v>
       </c>
       <c r="H15">
-        <v>0.184614</v>
+        <v>1.107425</v>
       </c>
       <c r="I15">
-        <v>0.002224163204285066</v>
+        <v>0.01139171054409548</v>
       </c>
       <c r="J15">
-        <v>0.002224163204285067</v>
+        <v>0.01139171054409548</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>22.83185066666666</v>
+        <v>22.83185066666667</v>
       </c>
       <c r="N15">
-        <v>68.49555199999999</v>
+        <v>68.495552</v>
       </c>
       <c r="O15">
-        <v>0.2776675742026813</v>
+        <v>0.1774912152792038</v>
       </c>
       <c r="P15">
-        <v>0.2776675742026813</v>
+        <v>0.1774912152792038</v>
       </c>
       <c r="Q15">
-        <v>1.405026426325333</v>
+        <v>8.428187408177777</v>
       </c>
       <c r="R15">
-        <v>12.645237836928</v>
+        <v>75.8536866736</v>
       </c>
       <c r="S15">
-        <v>0.0006175780015646971</v>
+        <v>0.002021928548580427</v>
       </c>
       <c r="T15">
-        <v>0.0006175780015646973</v>
+        <v>0.002021928548580426</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.061538</v>
+        <v>0.3691416666666666</v>
       </c>
       <c r="H16">
-        <v>0.184614</v>
+        <v>1.107425</v>
       </c>
       <c r="I16">
-        <v>0.002224163204285066</v>
+        <v>0.01139171054409548</v>
       </c>
       <c r="J16">
-        <v>0.002224163204285067</v>
+        <v>0.01139171054409548</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.361398</v>
+        <v>7.077809999999999</v>
       </c>
       <c r="N16">
-        <v>19.084194</v>
+        <v>21.23343</v>
       </c>
       <c r="O16">
-        <v>0.0773635907568621</v>
+        <v>0.05502178149094856</v>
       </c>
       <c r="P16">
-        <v>0.07736359075686208</v>
+        <v>0.05502178149094855</v>
       </c>
       <c r="Q16">
-        <v>0.3914677101240001</v>
+        <v>2.61271457975</v>
       </c>
       <c r="R16">
-        <v>3.523209391116</v>
+        <v>23.51443121774999</v>
       </c>
       <c r="S16">
-        <v>0.0001720692519127809</v>
+        <v>0.0006267922083653561</v>
       </c>
       <c r="T16">
-        <v>0.0001720692519127809</v>
+        <v>0.000626792208365356</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.061538</v>
+        <v>0.3691416666666666</v>
       </c>
       <c r="H17">
-        <v>0.184614</v>
+        <v>1.107425</v>
       </c>
       <c r="I17">
-        <v>0.002224163204285066</v>
+        <v>0.01139171054409548</v>
       </c>
       <c r="J17">
-        <v>0.002224163204285067</v>
+        <v>0.01139171054409548</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.743043</v>
+        <v>7.117379</v>
       </c>
       <c r="N17">
-        <v>26.229129</v>
+        <v>21.352137</v>
       </c>
       <c r="O17">
-        <v>0.1063277601278285</v>
+        <v>0.05532938467213248</v>
       </c>
       <c r="P17">
-        <v>0.1063277601278285</v>
+        <v>0.05532938467213247</v>
       </c>
       <c r="Q17">
-        <v>0.538029380134</v>
+        <v>2.627321146358333</v>
       </c>
       <c r="R17">
-        <v>4.842264421206</v>
+        <v>23.645890317225</v>
       </c>
       <c r="S17">
-        <v>0.0002364902916703649</v>
+        <v>0.0006302963347678464</v>
       </c>
       <c r="T17">
-        <v>0.0002364902916703649</v>
+        <v>0.0006302963347678462</v>
       </c>
     </row>
   </sheetData>
